--- a/spreadsheet/macrofree/servicebus_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/servicebus_checklist.pt.xlsx
@@ -1983,12 +1983,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Quando possível, seu aplicativo deve usar uma identidade gerenciada para se autenticar no Barramento de Serviço do Azure. Caso contrário, considere ter a credencial de armazenamento (SAS, credencial de entidade de serviço) no Azure Key Vault ou em um serviço equivalente</t>
+          <t>Quando possível, desabilite a autenticação de chave SAS (ou autenticação local) e use apenas a ID do Microsoft Entra para autenticação</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Um aplicativo cliente do Barramento de Serviço em execução dentro de um aplicativo do Serviço de Aplicativo do Azure ou em uma máquina virtual com entidades gerenciadas habilitadas para suporte a recursos do Azure não precisa lidar com regras e chaves SAS ou quaisquer outros tokens de acesso. O aplicativo cliente só precisa do endereço do ponto de extremidade do namespace do Sistema de Mensagens do Barramento de Serviço. </t>
+          <t>O Microsoft Entra ID fornece segurança superior e facilidade de uso em relação às SAS (assinaturas de acesso compartilhado). Com o Microsoft Entra ID, não há necessidade de armazenar os tokens em seu código e arriscar possíveis vulnerabilidades de segurança. Recomendamos que você use a ID do Microsoft Entra com seus aplicativos do Barramento de Serviço do Azure quando possível.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2004,7 +2004,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-bus-messaging/service-bus-managed-service-identity</t>
+          <t>https://learn.microsoft.com/en-us/azure/service-bus-messaging/disable-local-authentication</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
